--- a/data/trans_camb/P5_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 4,77</t>
+          <t>-3,58; 4,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 4,07</t>
+          <t>-3,05; 3,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 3,16</t>
+          <t>-2,13; 2,79</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 43,99</t>
+          <t>-25,04; 40,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 40,2</t>
+          <t>-24,4; 37,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 29,23</t>
+          <t>-16,35; 26,28</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 9,31</t>
+          <t>-4,08; 6,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 5,21</t>
+          <t>-3,42; 5,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 5,28</t>
+          <t>-2,32; 4,39</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 58,04</t>
+          <t>-20,7; 40,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,48; 41,04</t>
+          <t>-20,82; 45,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 34,73</t>
+          <t>-13,54; 29,31</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 9,74</t>
+          <t>-11,26; 10,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 13,43</t>
+          <t>-8,06; 9,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 7,97</t>
+          <t>-8,13; 6,39</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,42%</t>
+          <t>-1,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 61,25</t>
+          <t>-41,58; 64,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 95,76</t>
+          <t>-37,69; 65,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 47,3</t>
+          <t>-33,26; 36,61</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 4,42</t>
+          <t>-2,22; 3,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,46</t>
+          <t>-2,1; 2,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,16</t>
+          <t>-1,31; 2,5</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 31,55</t>
+          <t>-13,13; 26,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 28,69</t>
+          <t>-14,16; 24,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 23,51</t>
+          <t>-8,53; 17,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.06276372666318697</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.559554974658423</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3215738741003463</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,58; 4,34</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 3,55</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,13; 2,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.730026429710588</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.020062683178411</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-2.163295540100403</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,54%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.270875018905935</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.697916427398973</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.859848816237236</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-25,04; 40,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-24,4; 37,78</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-16,35; 26,28</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.004993009671565464</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.04972669370611161</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02706287527143215</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2523935948090592</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2400260100806433</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1620322373352042</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 6,34</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 5,56</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,32; 4,39</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.4060434693124534</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3885509080505146</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2736761419118349</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,89%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1.488668300340826</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3749759003911418</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.9315026939739485</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-20,7; 40,27</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-20,82; 45,11</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,54; 29,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.900575174344303</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.757807610131599</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.443708839071669</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.4957092493033</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.052220003102489</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>4.170509311723547</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,26; 10,26</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,06; 9,47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-8,13; 6,39</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.08360778660173024</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.02582325415242687</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.0576798964630178</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,6%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,84%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1945553410313761</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2303386859509028</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1409344847644902</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-41,58; 64,26</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-37,69; 65,27</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-33,26; 36,61</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.4224115212746086</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.3974120527258916</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2877540103453339</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>0.194994732814141</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.880761061125941</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.026851908053961</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,22; 3,84</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 2,99</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 2,5</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-11.31675298110318</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.151925424991366</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-7.523118387876944</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>3,73%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>3,86%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>12.4157334488311</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>12.03565026631308</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>8.137892985340661</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-13,13; 26,94</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-14,16; 24,42</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-8,53; 17,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.008846785292533424</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.1021151746192226</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.05070029444557273</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.4197744507695757</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3449264032116402</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3055850770727444</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.755599324270457</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.8093808915773744</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.4695095997821153</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.6291004552704454</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.6231470914790177</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.6260549475655824</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.189008639125962</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-1.988206266184685</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-1.315091580724401</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.9102827058498</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.105439712283294</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.627225707554796</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.03972692339224862</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.04669536956834592</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.04299384532329376</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1291430824445805</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1381780024772065</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.08443762053157822</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2786445812008342</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.2583262041865649</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1900394938723672</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
